--- a/public/reports/production_report.xlsx
+++ b/public/reports/production_report.xlsx
@@ -70,7 +70,7 @@
     <t>Delivery Remaining</t>
   </si>
   <si>
-    <t>PRODUCTION REPORT</t>
+    <t>PRODUCTION STATUS REPORT</t>
   </si>
 </sst>
 </file>
@@ -417,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
